--- a/Image Generation AIOE and AIIE.xlsx
+++ b/Image Generation AIOE and AIIE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Drive\Documents\Research\AI, ONET, and Occupations\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manavraj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE39F41C-9425-4CED-B8B5-9095F17CDA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1526B652-8A8B-43A7-9D77-66EAE9347BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{9824E2AC-0DAC-495A-A892-B85A68B2F47B}"/>
   </bookViews>
@@ -4692,9 +4692,6 @@
     <t>Occupation Title</t>
   </si>
   <si>
-    <t>Language Modeling AIOE</t>
-  </si>
-  <si>
     <t>Elementary and Secondary Schools</t>
   </si>
   <si>
@@ -5493,7 +5490,10 @@
     <t>NAICS Description</t>
   </si>
   <si>
-    <t>Language Modeling AIIE</t>
+    <t>Image Generation AIOE</t>
+  </si>
+  <si>
+    <t>Image Generation AIIE</t>
   </si>
 </sst>
 </file>
@@ -5853,7 +5853,7 @@
   <dimension ref="A1:C775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5871,7 +5871,7 @@
         <v>1549</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1550</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -14398,7 +14398,7 @@
   <dimension ref="A1:C251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14410,10 +14410,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B1" t="s">
         <v>1815</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1816</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1817</v>
@@ -14424,7 +14424,7 @@
         <v>113300</v>
       </c>
       <c r="B2" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C2" s="2">
         <v>-7.5008099999999994E-2</v>
@@ -14435,7 +14435,7 @@
         <v>115100</v>
       </c>
       <c r="B3" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C3" s="2">
         <v>-2.262607</v>
@@ -14446,7 +14446,7 @@
         <v>115200</v>
       </c>
       <c r="B4" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="C4" s="2">
         <v>-1.1621189999999999</v>
@@ -14457,7 +14457,7 @@
         <v>211100</v>
       </c>
       <c r="B5" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="C5" s="2">
         <v>1.114644</v>
@@ -14468,7 +14468,7 @@
         <v>212100</v>
       </c>
       <c r="B6" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C6" s="2">
         <v>-0.25753500000000001</v>
@@ -14479,7 +14479,7 @@
         <v>212200</v>
       </c>
       <c r="B7" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C7" s="2">
         <v>-9.8884299999999994E-2</v>
@@ -14490,7 +14490,7 @@
         <v>212300</v>
       </c>
       <c r="B8" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C8" s="2">
         <v>-0.38522800000000001</v>
@@ -14501,7 +14501,7 @@
         <v>213100</v>
       </c>
       <c r="B9" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="C9" s="2">
         <v>-0.50054589999999999</v>
@@ -14512,7 +14512,7 @@
         <v>221100</v>
       </c>
       <c r="B10" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C10" s="2">
         <v>0.70405099999999998</v>
@@ -14523,7 +14523,7 @@
         <v>221200</v>
       </c>
       <c r="B11" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C11" s="2">
         <v>0.73332050000000004</v>
@@ -14534,7 +14534,7 @@
         <v>221300</v>
       </c>
       <c r="B12" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C12" s="2">
         <v>0.1092118</v>
@@ -14545,7 +14545,7 @@
         <v>236100</v>
       </c>
       <c r="B13" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C13" s="2">
         <v>-0.55898000000000003</v>
@@ -14556,7 +14556,7 @@
         <v>236200</v>
       </c>
       <c r="B14" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C14" s="2">
         <v>-0.2269581</v>
@@ -14567,7 +14567,7 @@
         <v>237100</v>
       </c>
       <c r="B15" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C15" s="2">
         <v>-0.70850400000000002</v>
@@ -14578,7 +14578,7 @@
         <v>237200</v>
       </c>
       <c r="B16" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="C16" s="2">
         <v>0.81669659999999999</v>
@@ -14589,7 +14589,7 @@
         <v>237300</v>
       </c>
       <c r="B17" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C17" s="2">
         <v>-0.78023710000000002</v>
@@ -14600,7 +14600,7 @@
         <v>237900</v>
       </c>
       <c r="B18" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C18" s="2">
         <v>-0.5977363</v>
@@ -14611,7 +14611,7 @@
         <v>238100</v>
       </c>
       <c r="B19" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C19" s="2">
         <v>-1.6026549999999999</v>
@@ -14622,7 +14622,7 @@
         <v>238200</v>
       </c>
       <c r="B20" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C20" s="2">
         <v>-0.23822109999999999</v>
@@ -14633,7 +14633,7 @@
         <v>238300</v>
       </c>
       <c r="B21" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C21" s="2">
         <v>-1.4901990000000001</v>
@@ -14644,7 +14644,7 @@
         <v>238900</v>
       </c>
       <c r="B22" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="C22" s="2">
         <v>-0.92169000000000001</v>
@@ -14655,7 +14655,7 @@
         <v>311100</v>
       </c>
       <c r="B23" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="C23" s="2">
         <v>-0.5855823</v>
@@ -14666,7 +14666,7 @@
         <v>311200</v>
       </c>
       <c r="B24" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C24" s="2">
         <v>-0.56287310000000002</v>
@@ -14677,7 +14677,7 @@
         <v>311300</v>
       </c>
       <c r="B25" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C25" s="2">
         <v>-0.94769669999999995</v>
@@ -14688,7 +14688,7 @@
         <v>311400</v>
       </c>
       <c r="B26" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="C26" s="2">
         <v>-0.95908020000000005</v>
@@ -14699,7 +14699,7 @@
         <v>311500</v>
       </c>
       <c r="B27" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C27" s="2">
         <v>-0.72780389999999995</v>
@@ -14710,7 +14710,7 @@
         <v>311600</v>
       </c>
       <c r="B28" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C28" s="2">
         <v>-1.930399</v>
@@ -14721,7 +14721,7 @@
         <v>311700</v>
       </c>
       <c r="B29" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C29" s="2">
         <v>-1.4186810000000001</v>
@@ -14732,7 +14732,7 @@
         <v>311800</v>
       </c>
       <c r="B30" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C30" s="2">
         <v>-0.87214170000000002</v>
@@ -14743,7 +14743,7 @@
         <v>311900</v>
       </c>
       <c r="B31" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="C31" s="2">
         <v>-0.86504840000000005</v>
@@ -14754,7 +14754,7 @@
         <v>312100</v>
       </c>
       <c r="B32" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C32" s="2">
         <v>-0.78572209999999998</v>
@@ -14765,7 +14765,7 @@
         <v>312200</v>
       </c>
       <c r="B33" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C33" s="2">
         <v>-0.59008090000000002</v>
@@ -14776,7 +14776,7 @@
         <v>313100</v>
       </c>
       <c r="B34" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C34" s="2">
         <v>-1.462242</v>
@@ -14787,7 +14787,7 @@
         <v>313200</v>
       </c>
       <c r="B35" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C35" s="2">
         <v>-1.090743</v>
@@ -14798,7 +14798,7 @@
         <v>313300</v>
       </c>
       <c r="B36" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C36" s="2">
         <v>-0.26308779999999998</v>
@@ -14809,7 +14809,7 @@
         <v>314100</v>
       </c>
       <c r="B37" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C37" s="2">
         <v>-0.64855770000000001</v>
@@ -14820,7 +14820,7 @@
         <v>314900</v>
       </c>
       <c r="B38" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="C38" s="2">
         <v>5.4021399999999997E-2</v>
@@ -14831,7 +14831,7 @@
         <v>315100</v>
       </c>
       <c r="B39" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C39" s="2">
         <v>-1.3446009999999999</v>
@@ -14842,7 +14842,7 @@
         <v>315200</v>
       </c>
       <c r="B40" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C40" s="2">
         <v>8.2836800000000002E-2</v>
@@ -14853,7 +14853,7 @@
         <v>315900</v>
       </c>
       <c r="B41" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C41" s="2">
         <v>-6.0303500000000003E-2</v>
@@ -14864,7 +14864,7 @@
         <v>316100</v>
       </c>
       <c r="B42" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="C42" s="2">
         <v>-1.0051779999999999</v>
@@ -14875,7 +14875,7 @@
         <v>316200</v>
       </c>
       <c r="B43" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C43" s="2">
         <v>-0.36782090000000001</v>
@@ -14886,7 +14886,7 @@
         <v>316900</v>
       </c>
       <c r="B44" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C44" s="2">
         <v>-0.30590719999999999</v>
@@ -14897,7 +14897,7 @@
         <v>321100</v>
       </c>
       <c r="B45" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="C45" s="2">
         <v>-1.0162119999999999</v>
@@ -14908,7 +14908,7 @@
         <v>321200</v>
       </c>
       <c r="B46" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C46" s="2">
         <v>-0.8070484</v>
@@ -14919,7 +14919,7 @@
         <v>321900</v>
       </c>
       <c r="B47" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C47" s="2">
         <v>-0.88640870000000005</v>
@@ -14930,7 +14930,7 @@
         <v>322100</v>
       </c>
       <c r="B48" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C48" s="2">
         <v>-0.61305370000000003</v>
@@ -14941,7 +14941,7 @@
         <v>322200</v>
       </c>
       <c r="B49" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C49" s="2">
         <v>-0.60154350000000001</v>
@@ -14952,7 +14952,7 @@
         <v>323100</v>
       </c>
       <c r="B50" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C50" s="2">
         <v>0.25096400000000002</v>
@@ -14963,7 +14963,7 @@
         <v>324100</v>
       </c>
       <c r="B51" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C51" s="2">
         <v>0.41921170000000002</v>
@@ -14974,7 +14974,7 @@
         <v>325400</v>
       </c>
       <c r="B52" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C52" s="2">
         <v>0.82041410000000003</v>
@@ -14985,7 +14985,7 @@
         <v>326100</v>
       </c>
       <c r="B53" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C53" s="2">
         <v>-0.66594140000000002</v>
@@ -14996,7 +14996,7 @@
         <v>326200</v>
       </c>
       <c r="B54" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="C54" s="2">
         <v>-0.89937590000000001</v>
@@ -15007,7 +15007,7 @@
         <v>327000</v>
       </c>
       <c r="B55" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C55" s="2">
         <v>-0.4583566</v>
@@ -15018,7 +15018,7 @@
         <v>331100</v>
       </c>
       <c r="B56" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C56" s="2">
         <v>-0.50297250000000004</v>
@@ -15029,7 +15029,7 @@
         <v>331200</v>
       </c>
       <c r="B57" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C57" s="2">
         <v>-0.52738810000000003</v>
@@ -15040,7 +15040,7 @@
         <v>331300</v>
       </c>
       <c r="B58" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C58" s="2">
         <v>-0.648177</v>
@@ -15051,7 +15051,7 @@
         <v>331400</v>
       </c>
       <c r="B59" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C59" s="2">
         <v>-0.33943410000000002</v>
@@ -15062,7 +15062,7 @@
         <v>331500</v>
       </c>
       <c r="B60" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C60" s="2">
         <v>-0.74876359999999997</v>
@@ -15073,7 +15073,7 @@
         <v>332700</v>
       </c>
       <c r="B61" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="C61" s="2">
         <v>-0.23724039999999999</v>
@@ -15084,7 +15084,7 @@
         <v>332800</v>
       </c>
       <c r="B62" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C62" s="2">
         <v>-0.64463349999999997</v>
@@ -15095,7 +15095,7 @@
         <v>333300</v>
       </c>
       <c r="B63" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C63" s="2">
         <v>0.75828139999999999</v>
@@ -15106,7 +15106,7 @@
         <v>333500</v>
       </c>
       <c r="B64" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C64" s="2">
         <v>0.11182789999999999</v>
@@ -15117,7 +15117,7 @@
         <v>333600</v>
       </c>
       <c r="B65" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="C65" s="2">
         <v>0.68650029999999995</v>
@@ -15128,7 +15128,7 @@
         <v>334100</v>
       </c>
       <c r="B66" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C66" s="2">
         <v>2.0410819999999998</v>
@@ -15139,7 +15139,7 @@
         <v>334200</v>
       </c>
       <c r="B67" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C67" s="2">
         <v>1.6079779999999999</v>
@@ -15150,7 +15150,7 @@
         <v>334300</v>
       </c>
       <c r="B68" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C68" s="2">
         <v>1.496343</v>
@@ -15161,7 +15161,7 @@
         <v>334400</v>
       </c>
       <c r="B69" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C69" s="2">
         <v>1.309517</v>
@@ -15172,7 +15172,7 @@
         <v>334500</v>
       </c>
       <c r="B70" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C70" s="2">
         <v>1.671551</v>
@@ -15183,7 +15183,7 @@
         <v>334600</v>
       </c>
       <c r="B71" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C71" s="2">
         <v>0.23842669999999999</v>
@@ -15194,7 +15194,7 @@
         <v>335100</v>
       </c>
       <c r="B72" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C72" s="2">
         <v>0.79167989999999999</v>
@@ -15205,7 +15205,7 @@
         <v>335200</v>
       </c>
       <c r="B73" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C73" s="2">
         <v>0.41288039999999998</v>
@@ -15216,7 +15216,7 @@
         <v>335300</v>
       </c>
       <c r="B74" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C74" s="2">
         <v>0.80535500000000004</v>
@@ -15227,7 +15227,7 @@
         <v>335900</v>
       </c>
       <c r="B75" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C75" s="2">
         <v>0.29981350000000001</v>
@@ -15238,7 +15238,7 @@
         <v>336100</v>
       </c>
       <c r="B76" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C76" s="2">
         <v>0.24441180000000001</v>
@@ -15249,7 +15249,7 @@
         <v>336200</v>
       </c>
       <c r="B77" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="C77" s="2">
         <v>-0.37709520000000002</v>
@@ -15260,7 +15260,7 @@
         <v>336300</v>
       </c>
       <c r="B78" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C78" s="2">
         <v>-0.108322</v>
@@ -15271,7 +15271,7 @@
         <v>336400</v>
       </c>
       <c r="B79" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C79" s="2">
         <v>1.1903760000000001</v>
@@ -15282,7 +15282,7 @@
         <v>336500</v>
       </c>
       <c r="B80" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C80" s="2">
         <v>-0.15049679999999999</v>
@@ -15293,7 +15293,7 @@
         <v>336600</v>
       </c>
       <c r="B81" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C81" s="2">
         <v>-5.44223E-2</v>
@@ -15304,7 +15304,7 @@
         <v>336900</v>
       </c>
       <c r="B82" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C82" s="2">
         <v>0.25309090000000001</v>
@@ -15315,7 +15315,7 @@
         <v>337900</v>
       </c>
       <c r="B83" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C83" s="2">
         <v>-0.24217369999999999</v>
@@ -15326,7 +15326,7 @@
         <v>339100</v>
       </c>
       <c r="B84" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C84" s="2">
         <v>0.78154579999999996</v>
@@ -15337,7 +15337,7 @@
         <v>339900</v>
       </c>
       <c r="B85" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C85" s="2">
         <v>0.27895999999999999</v>
@@ -15348,7 +15348,7 @@
         <v>423100</v>
       </c>
       <c r="B86" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C86" s="2">
         <v>-0.18812129999999999</v>
@@ -15359,7 +15359,7 @@
         <v>423400</v>
       </c>
       <c r="B87" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C87" s="2">
         <v>1.035819</v>
@@ -15370,7 +15370,7 @@
         <v>423800</v>
       </c>
       <c r="B88" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C88" s="2">
         <v>0.20457359999999999</v>
@@ -15381,7 +15381,7 @@
         <v>424300</v>
       </c>
       <c r="B89" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C89" s="2">
         <v>0.49998310000000001</v>
@@ -15392,7 +15392,7 @@
         <v>424500</v>
       </c>
       <c r="B90" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C90" s="2">
         <v>-0.65472339999999996</v>
@@ -15403,7 +15403,7 @@
         <v>425100</v>
       </c>
       <c r="B91" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C91" s="2">
         <v>0.69432179999999999</v>
@@ -15414,7 +15414,7 @@
         <v>441100</v>
       </c>
       <c r="B92" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="C92" s="2">
         <v>-0.48326859999999999</v>
@@ -15425,7 +15425,7 @@
         <v>441200</v>
       </c>
       <c r="B93" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="C93" s="2">
         <v>-0.56584749999999995</v>
@@ -15436,7 +15436,7 @@
         <v>441300</v>
       </c>
       <c r="B94" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C94" s="2">
         <v>-0.87447450000000004</v>
@@ -15447,7 +15447,7 @@
         <v>442100</v>
       </c>
       <c r="B95" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C95" s="2">
         <v>-0.58529129999999996</v>
@@ -15458,7 +15458,7 @@
         <v>442200</v>
       </c>
       <c r="B96" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C96" s="2">
         <v>-0.76902820000000005</v>
@@ -15469,7 +15469,7 @@
         <v>443100</v>
       </c>
       <c r="B97" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C97" s="2">
         <v>-0.28142650000000002</v>
@@ -15480,7 +15480,7 @@
         <v>444100</v>
       </c>
       <c r="B98" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C98" s="2">
         <v>-0.71776989999999996</v>
@@ -15491,7 +15491,7 @@
         <v>444200</v>
       </c>
       <c r="B99" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C99" s="2">
         <v>-1.0379350000000001</v>
@@ -15502,7 +15502,7 @@
         <v>445300</v>
       </c>
       <c r="B100" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C100" s="2">
         <v>-1.0039070000000001</v>
@@ -15513,7 +15513,7 @@
         <v>446100</v>
       </c>
       <c r="B101" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C101" s="2">
         <v>-0.16529079999999999</v>
@@ -15524,7 +15524,7 @@
         <v>447100</v>
       </c>
       <c r="B102" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C102" s="2">
         <v>-1.192534</v>
@@ -15535,7 +15535,7 @@
         <v>448100</v>
       </c>
       <c r="B103" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C103" s="2">
         <v>-0.90712749999999998</v>
@@ -15546,7 +15546,7 @@
         <v>448200</v>
       </c>
       <c r="B104" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C104" s="2">
         <v>-0.91766199999999998</v>
@@ -15557,7 +15557,7 @@
         <v>448300</v>
       </c>
       <c r="B105" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C105" s="2">
         <v>-0.38458540000000002</v>
@@ -15568,7 +15568,7 @@
         <v>451100</v>
       </c>
       <c r="B106" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C106" s="2">
         <v>-0.79380499999999998</v>
@@ -15579,7 +15579,7 @@
         <v>451200</v>
       </c>
       <c r="B107" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="C107" s="2">
         <v>-0.87692879999999995</v>
@@ -15590,7 +15590,7 @@
         <v>452000</v>
       </c>
       <c r="B108" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C108" s="2">
         <v>-0.98308240000000002</v>
@@ -15601,7 +15601,7 @@
         <v>453100</v>
       </c>
       <c r="B109" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C109" s="2">
         <v>0.1097455</v>
@@ -15612,7 +15612,7 @@
         <v>453900</v>
       </c>
       <c r="B110" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="C110" s="2">
         <v>-0.87074320000000005</v>
@@ -15623,7 +15623,7 @@
         <v>454100</v>
       </c>
       <c r="B111" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C111" s="2">
         <v>0.35192040000000002</v>
@@ -15634,7 +15634,7 @@
         <v>454200</v>
       </c>
       <c r="B112" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C112" s="2">
         <v>-0.44191900000000001</v>
@@ -15645,7 +15645,7 @@
         <v>454300</v>
       </c>
       <c r="B113" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="C113" s="2">
         <v>-1.46821E-2</v>
@@ -15656,7 +15656,7 @@
         <v>481100</v>
       </c>
       <c r="B114" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C114" s="2">
         <v>-0.76730679999999996</v>
@@ -15667,7 +15667,7 @@
         <v>481200</v>
       </c>
       <c r="B115" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C115" s="2">
         <v>1.001061</v>
@@ -15678,7 +15678,7 @@
         <v>482100</v>
       </c>
       <c r="B116" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="C116" s="2">
         <v>0.13197680000000001</v>
@@ -15689,7 +15689,7 @@
         <v>483100</v>
       </c>
       <c r="B117" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C117" s="2">
         <v>0.33930890000000002</v>
@@ -15700,7 +15700,7 @@
         <v>483200</v>
       </c>
       <c r="B118" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C118" s="2">
         <v>0.36780750000000001</v>
@@ -15711,7 +15711,7 @@
         <v>484000</v>
       </c>
       <c r="B119" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C119" s="2">
         <v>-0.27950520000000001</v>
@@ -15722,7 +15722,7 @@
         <v>485100</v>
       </c>
       <c r="B120" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C120" s="2">
         <v>-4.7478800000000002E-2</v>
@@ -15733,7 +15733,7 @@
         <v>485200</v>
       </c>
       <c r="B121" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="C121" s="2">
         <v>-0.36846590000000001</v>
@@ -15744,7 +15744,7 @@
         <v>485300</v>
       </c>
       <c r="B122" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="C122" s="2">
         <v>1.189306</v>
@@ -15755,7 +15755,7 @@
         <v>485400</v>
       </c>
       <c r="B123" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C123" s="2">
         <v>9.5714000000000007E-3</v>
@@ -15766,7 +15766,7 @@
         <v>485500</v>
       </c>
       <c r="B124" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C124" s="2">
         <v>-4.7523900000000001E-2</v>
@@ -15777,7 +15777,7 @@
         <v>485900</v>
       </c>
       <c r="B125" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C125" s="2">
         <v>0.82601219999999997</v>
@@ -15788,7 +15788,7 @@
         <v>486100</v>
       </c>
       <c r="B126" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C126" s="2">
         <v>0.4298265</v>
@@ -15799,7 +15799,7 @@
         <v>486200</v>
       </c>
       <c r="B127" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C127" s="2">
         <v>0.5647721</v>
@@ -15810,7 +15810,7 @@
         <v>486900</v>
       </c>
       <c r="B128" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="C128" s="2">
         <v>0.72158979999999995</v>
@@ -15821,7 +15821,7 @@
         <v>487100</v>
       </c>
       <c r="B129" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C129" s="2">
         <v>-0.11355220000000001</v>
@@ -15832,7 +15832,7 @@
         <v>487200</v>
       </c>
       <c r="B130" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C130" s="2">
         <v>-0.56792659999999995</v>
@@ -15843,7 +15843,7 @@
         <v>487900</v>
       </c>
       <c r="B131" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C131" s="2">
         <v>0.73962919999999999</v>
@@ -15854,7 +15854,7 @@
         <v>488100</v>
       </c>
       <c r="B132" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C132" s="2">
         <v>-0.19903799999999999</v>
@@ -15865,7 +15865,7 @@
         <v>488200</v>
       </c>
       <c r="B133" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C133" s="2">
         <v>-0.99855419999999995</v>
@@ -15876,7 +15876,7 @@
         <v>488300</v>
       </c>
       <c r="B134" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C134" s="2">
         <v>-0.95180390000000004</v>
@@ -15887,7 +15887,7 @@
         <v>488400</v>
       </c>
       <c r="B135" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C135" s="2">
         <v>-0.16115299999999999</v>
@@ -15898,7 +15898,7 @@
         <v>488500</v>
       </c>
       <c r="B136" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C136" s="2">
         <v>1.1144000000000001</v>
@@ -15909,7 +15909,7 @@
         <v>488900</v>
       </c>
       <c r="B137" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C137" s="2">
         <v>-1.3890629999999999</v>
@@ -15920,7 +15920,7 @@
         <v>491100</v>
       </c>
       <c r="B138" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C138" s="2">
         <v>-1.707862</v>
@@ -15931,7 +15931,7 @@
         <v>492100</v>
       </c>
       <c r="B139" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="C139" s="2">
         <v>-0.41253840000000003</v>
@@ -15942,7 +15942,7 @@
         <v>492200</v>
       </c>
       <c r="B140" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C140" s="2">
         <v>-0.62942120000000001</v>
@@ -15953,7 +15953,7 @@
         <v>493100</v>
       </c>
       <c r="B141" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C141" s="2">
         <v>-1.3888389999999999</v>
@@ -15964,7 +15964,7 @@
         <v>511100</v>
       </c>
       <c r="B142" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C142" s="2">
         <v>1.6709020000000001</v>
@@ -15975,7 +15975,7 @@
         <v>511200</v>
       </c>
       <c r="B143" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C143" s="2">
         <v>2.1049929999999999</v>
@@ -15986,7 +15986,7 @@
         <v>512100</v>
       </c>
       <c r="B144" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C144" s="2">
         <v>0.64101779999999997</v>
@@ -15997,7 +15997,7 @@
         <v>512200</v>
       </c>
       <c r="B145" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C145" s="2">
         <v>1.5067889999999999</v>
@@ -16008,7 +16008,7 @@
         <v>515100</v>
       </c>
       <c r="B146" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C146" s="2">
         <v>1.7452799999999999</v>
@@ -16019,7 +16019,7 @@
         <v>515200</v>
       </c>
       <c r="B147" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C147" s="2">
         <v>1.4266350000000001</v>
@@ -16030,7 +16030,7 @@
         <v>517000</v>
       </c>
       <c r="B148" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C148" s="2">
         <v>0.58764170000000004</v>
@@ -16041,7 +16041,7 @@
         <v>518200</v>
       </c>
       <c r="B149" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C149" s="2">
         <v>1.697047</v>
@@ -16052,7 +16052,7 @@
         <v>519100</v>
       </c>
       <c r="B150" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="C150" s="2">
         <v>1.736799</v>
@@ -16063,7 +16063,7 @@
         <v>521100</v>
       </c>
       <c r="B151" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C151" s="2">
         <v>1.739363</v>
@@ -16074,7 +16074,7 @@
         <v>522200</v>
       </c>
       <c r="B152" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C152" s="2">
         <v>1.5428919999999999</v>
@@ -16085,7 +16085,7 @@
         <v>523000</v>
       </c>
       <c r="B153" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C153" s="2">
         <v>1.8491500000000001</v>
@@ -16096,7 +16096,7 @@
         <v>524100</v>
       </c>
       <c r="B154" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C154" s="2">
         <v>1.785158</v>
@@ -16107,7 +16107,7 @@
         <v>524200</v>
       </c>
       <c r="B155" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C155" s="2">
         <v>1.6242190000000001</v>
@@ -16118,7 +16118,7 @@
         <v>525100</v>
       </c>
       <c r="B156" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C156" s="2">
         <v>1.9105300000000001</v>
@@ -16129,7 +16129,7 @@
         <v>525900</v>
       </c>
       <c r="B157" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C157" s="2">
         <v>1.777566</v>
@@ -16140,7 +16140,7 @@
         <v>531000</v>
       </c>
       <c r="B158" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C158" s="2">
         <v>0.50164120000000001</v>
@@ -16151,7 +16151,7 @@
         <v>532100</v>
       </c>
       <c r="B159" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C159" s="2">
         <v>-0.34363959999999999</v>
@@ -16162,7 +16162,7 @@
         <v>533100</v>
       </c>
       <c r="B160" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="C160" s="2">
         <v>1.7707889999999999</v>
@@ -16173,7 +16173,7 @@
         <v>541100</v>
       </c>
       <c r="B161" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C161" s="2">
         <v>1.888971</v>
@@ -16184,7 +16184,7 @@
         <v>541200</v>
       </c>
       <c r="B162" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C162" s="2">
         <v>2.2596509999999999</v>
@@ -16195,7 +16195,7 @@
         <v>541300</v>
       </c>
       <c r="B163" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C163" s="2">
         <v>2.6539470000000001</v>
@@ -16206,7 +16206,7 @@
         <v>541400</v>
       </c>
       <c r="B164" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C164" s="2">
         <v>2.6323639999999999</v>
@@ -16217,7 +16217,7 @@
         <v>541500</v>
       </c>
       <c r="B165" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C165" s="2">
         <v>1.985779</v>
@@ -16228,7 +16228,7 @@
         <v>541600</v>
       </c>
       <c r="B166" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C166" s="2">
         <v>1.8015509999999999</v>
@@ -16239,7 +16239,7 @@
         <v>541700</v>
       </c>
       <c r="B167" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C167" s="2">
         <v>2.1247319999999998</v>
@@ -16250,7 +16250,7 @@
         <v>541800</v>
       </c>
       <c r="B168" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C168" s="2">
         <v>1.548875</v>
@@ -16261,7 +16261,7 @@
         <v>541900</v>
       </c>
       <c r="B169" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C169" s="2">
         <v>0.2021578</v>
@@ -16272,7 +16272,7 @@
         <v>551100</v>
       </c>
       <c r="B170" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C170" s="2">
         <v>1.6679710000000001</v>
@@ -16283,7 +16283,7 @@
         <v>561100</v>
       </c>
       <c r="B171" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C171" s="2">
         <v>1.4711780000000001</v>
@@ -16294,7 +16294,7 @@
         <v>561200</v>
       </c>
       <c r="B172" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C172" s="2">
         <v>-1.328263</v>
@@ -16305,7 +16305,7 @@
         <v>561300</v>
       </c>
       <c r="B173" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C173" s="2">
         <v>-0.92387900000000001</v>
@@ -16316,7 +16316,7 @@
         <v>561400</v>
       </c>
       <c r="B174" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="C174" s="2">
         <v>0.74394559999999998</v>
@@ -16327,7 +16327,7 @@
         <v>561500</v>
       </c>
       <c r="B175" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="C175" s="2">
         <v>0.94959720000000003</v>
@@ -16338,7 +16338,7 @@
         <v>561600</v>
       </c>
       <c r="B176" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C176" s="2">
         <v>-0.16350419999999999</v>
@@ -16349,7 +16349,7 @@
         <v>561700</v>
       </c>
       <c r="B177" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C177" s="2">
         <v>-2.3465609999999999</v>
@@ -16360,7 +16360,7 @@
         <v>561900</v>
       </c>
       <c r="B178" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="C178" s="2">
         <v>-0.6175775</v>
@@ -16371,7 +16371,7 @@
         <v>562100</v>
       </c>
       <c r="B179" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C179" s="2">
         <v>-0.67185899999999998</v>
@@ -16382,7 +16382,7 @@
         <v>562200</v>
       </c>
       <c r="B180" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C180" s="2">
         <v>-0.19937740000000001</v>
@@ -16393,7 +16393,7 @@
         <v>562900</v>
       </c>
       <c r="B181" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="C181" s="2">
         <v>-0.39773310000000001</v>
@@ -16404,7 +16404,7 @@
         <v>611100</v>
       </c>
       <c r="B182" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C182" s="2">
         <v>0.94732490000000003</v>
@@ -16415,7 +16415,7 @@
         <v>611200</v>
       </c>
       <c r="B183" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C183" s="2">
         <v>0.80022249999999995</v>
@@ -16426,7 +16426,7 @@
         <v>611300</v>
       </c>
       <c r="B184" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C184" s="2">
         <v>0.90110060000000003</v>
@@ -16437,7 +16437,7 @@
         <v>611400</v>
       </c>
       <c r="B185" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C185" s="2">
         <v>1.433135</v>
@@ -16448,7 +16448,7 @@
         <v>611500</v>
       </c>
       <c r="B186" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="C186" s="2">
         <v>0.51273860000000004</v>
@@ -16459,7 +16459,7 @@
         <v>611600</v>
       </c>
       <c r="B187" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="C187" s="2">
         <v>2.84855E-2</v>
@@ -16470,7 +16470,7 @@
         <v>611700</v>
       </c>
       <c r="B188" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C188" s="2">
         <v>1.2579670000000001</v>
@@ -16481,7 +16481,7 @@
         <v>621100</v>
       </c>
       <c r="B189" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C189" s="2">
         <v>0.47572310000000001</v>
@@ -16492,7 +16492,7 @@
         <v>621200</v>
       </c>
       <c r="B190" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C190" s="2">
         <v>-8.3720900000000001E-2</v>
@@ -16503,7 +16503,7 @@
         <v>621300</v>
       </c>
       <c r="B191" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C191" s="2">
         <v>4.1658300000000002E-2</v>
@@ -16514,7 +16514,7 @@
         <v>621400</v>
       </c>
       <c r="B192" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C192" s="2">
         <v>0.48709360000000002</v>
@@ -16525,7 +16525,7 @@
         <v>621500</v>
       </c>
       <c r="B193" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C193" s="2">
         <v>0.51872529999999994</v>
@@ -16536,7 +16536,7 @@
         <v>621600</v>
       </c>
       <c r="B194" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C194" s="2">
         <v>0.1316011</v>
@@ -16547,7 +16547,7 @@
         <v>621900</v>
       </c>
       <c r="B195" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C195" s="2">
         <v>0.61356029999999995</v>
@@ -16558,7 +16558,7 @@
         <v>622100</v>
       </c>
       <c r="B196" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C196" s="2">
         <v>0.1197169</v>
@@ -16569,7 +16569,7 @@
         <v>622200</v>
       </c>
       <c r="B197" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C197" s="2">
         <v>-3.2196E-3</v>
@@ -16580,7 +16580,7 @@
         <v>622300</v>
       </c>
       <c r="B198" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C198" s="2">
         <v>0.14884739999999999</v>
@@ -16591,7 +16591,7 @@
         <v>623100</v>
       </c>
       <c r="B199" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C199" s="2">
         <v>-0.93496179999999995</v>
@@ -16602,7 +16602,7 @@
         <v>623200</v>
       </c>
       <c r="B200" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="C200" s="2">
         <v>0.25050630000000002</v>
@@ -16613,7 +16613,7 @@
         <v>623300</v>
       </c>
       <c r="B201" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C201" s="2">
         <v>-1.191505</v>
@@ -16624,7 +16624,7 @@
         <v>623900</v>
       </c>
       <c r="B202" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C202" s="2">
         <v>0.14912909999999999</v>
@@ -16635,7 +16635,7 @@
         <v>624100</v>
       </c>
       <c r="B203" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="C203" s="2">
         <v>0.60380739999999999</v>
@@ -16646,7 +16646,7 @@
         <v>624200</v>
       </c>
       <c r="B204" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="C204" s="2">
         <v>0.42012060000000001</v>
@@ -16657,7 +16657,7 @@
         <v>624300</v>
       </c>
       <c r="B205" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C205" s="2">
         <v>-0.2846168</v>
@@ -16668,7 +16668,7 @@
         <v>624400</v>
       </c>
       <c r="B206" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="C206" s="2">
         <v>-0.46361180000000002</v>
@@ -16679,7 +16679,7 @@
         <v>711100</v>
       </c>
       <c r="B207" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C207" s="2">
         <v>-0.50940180000000002</v>
@@ -16690,7 +16690,7 @@
         <v>711200</v>
       </c>
       <c r="B208" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C208" s="2">
         <v>-0.72088129999999995</v>
@@ -16701,7 +16701,7 @@
         <v>711300</v>
       </c>
       <c r="B209" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C209" s="2">
         <v>-0.52046680000000001</v>
@@ -16712,7 +16712,7 @@
         <v>711400</v>
       </c>
       <c r="B210" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="C210" s="2">
         <v>1.229819</v>
@@ -16723,7 +16723,7 @@
         <v>711500</v>
       </c>
       <c r="B211" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C211" s="2">
         <v>0.88279600000000003</v>
@@ -16734,7 +16734,7 @@
         <v>712100</v>
       </c>
       <c r="B212" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C212" s="2">
         <v>9.1941999999999996E-2</v>
@@ -16745,7 +16745,7 @@
         <v>713100</v>
       </c>
       <c r="B213" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C213" s="2">
         <v>-1.473279</v>
@@ -16756,7 +16756,7 @@
         <v>713200</v>
       </c>
       <c r="B214" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C214" s="2">
         <v>-0.60892780000000002</v>
@@ -16767,7 +16767,7 @@
         <v>713900</v>
       </c>
       <c r="B215" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C215" s="2">
         <v>-2.137343</v>
@@ -16778,7 +16778,7 @@
         <v>721100</v>
       </c>
       <c r="B216" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C216" s="2">
         <v>-1.7259180000000001</v>
@@ -16789,7 +16789,7 @@
         <v>721200</v>
       </c>
       <c r="B217" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="C217" s="2">
         <v>-0.81068130000000005</v>
@@ -16800,7 +16800,7 @@
         <v>721300</v>
       </c>
       <c r="B218" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C218" s="2">
         <v>-1.8865289999999999</v>
@@ -16811,7 +16811,7 @@
         <v>722300</v>
       </c>
       <c r="B219" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C219" s="2">
         <v>-1.8375939999999999</v>
@@ -16822,7 +16822,7 @@
         <v>722400</v>
       </c>
       <c r="B220" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C220" s="2">
         <v>-1.863788</v>
@@ -16833,7 +16833,7 @@
         <v>722500</v>
       </c>
       <c r="B221" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C221" s="2">
         <v>-2.1652480000000001</v>
@@ -16844,7 +16844,7 @@
         <v>811100</v>
       </c>
       <c r="B222" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C222" s="2">
         <v>-0.84382729999999995</v>
@@ -16855,7 +16855,7 @@
         <v>811200</v>
       </c>
       <c r="B223" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="C223" s="2">
         <v>0.72092100000000003</v>
@@ -16866,7 +16866,7 @@
         <v>811300</v>
       </c>
       <c r="B224" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C224" s="2">
         <v>-0.42855100000000002</v>
@@ -16877,7 +16877,7 @@
         <v>811400</v>
       </c>
       <c r="B225" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C225" s="2">
         <v>-0.47425840000000002</v>
@@ -16888,7 +16888,7 @@
         <v>812100</v>
       </c>
       <c r="B226" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="C226" s="2">
         <v>-0.49423899999999998</v>
@@ -16899,7 +16899,7 @@
         <v>812200</v>
       </c>
       <c r="B227" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C227" s="2">
         <v>-0.93444340000000004</v>
@@ -16910,7 +16910,7 @@
         <v>812300</v>
       </c>
       <c r="B228" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C228" s="2">
         <v>-1.4792940000000001</v>
@@ -16921,7 +16921,7 @@
         <v>812900</v>
       </c>
       <c r="B229" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C229" s="2">
         <v>-1.0683180000000001</v>
@@ -16932,7 +16932,7 @@
         <v>813100</v>
       </c>
       <c r="B230" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="C230" s="2">
         <v>0.34726849999999998</v>
@@ -16943,7 +16943,7 @@
         <v>813200</v>
       </c>
       <c r="B231" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C231" s="2">
         <v>1.336999</v>
@@ -16954,7 +16954,7 @@
         <v>813300</v>
       </c>
       <c r="B232" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="C232" s="2">
         <v>0.77199340000000005</v>
@@ -16965,7 +16965,7 @@
         <v>813400</v>
       </c>
       <c r="B233" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C233" s="2">
         <v>-1.1750499999999999</v>
@@ -16976,7 +16976,7 @@
         <v>813900</v>
       </c>
       <c r="B234" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C234" s="2">
         <v>1.0913470000000001</v>
@@ -16987,7 +16987,7 @@
         <v>999100</v>
       </c>
       <c r="B235" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C235" s="2">
         <v>1.2828269999999999</v>
@@ -16998,7 +16998,7 @@
         <v>999200</v>
       </c>
       <c r="B236" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C236" s="2">
         <v>0.4812283</v>
@@ -17009,7 +17009,7 @@
         <v>999300</v>
       </c>
       <c r="B237" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C237" s="2">
         <v>-9.8783700000000002E-2</v>
@@ -17017,10 +17017,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B238" t="s">
         <v>1566</v>
-      </c>
-      <c r="B238" t="s">
-        <v>1567</v>
       </c>
       <c r="C238" s="2">
         <v>0.3567747</v>
@@ -17028,10 +17028,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B239" t="s">
         <v>1764</v>
-      </c>
-      <c r="B239" t="s">
-        <v>1765</v>
       </c>
       <c r="C239" s="2">
         <v>-5.0450500000000002E-2</v>
@@ -17039,10 +17039,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B240" t="s">
         <v>1661</v>
-      </c>
-      <c r="B240" t="s">
-        <v>1662</v>
       </c>
       <c r="C240" s="2">
         <v>-0.1199392</v>
@@ -17050,10 +17050,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B241" t="s">
         <v>1688</v>
-      </c>
-      <c r="B241" t="s">
-        <v>1689</v>
       </c>
       <c r="C241" s="2">
         <v>-0.3157008</v>
@@ -17061,10 +17061,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B242" t="s">
         <v>1752</v>
-      </c>
-      <c r="B242" t="s">
-        <v>1753</v>
       </c>
       <c r="C242" s="2">
         <v>0.37941950000000002</v>
@@ -17072,10 +17072,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B243" t="s">
         <v>1674</v>
-      </c>
-      <c r="B243" t="s">
-        <v>1675</v>
       </c>
       <c r="C243" s="2">
         <v>-0.61663599999999996</v>
@@ -17083,10 +17083,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B244" t="s">
         <v>1663</v>
-      </c>
-      <c r="B244" t="s">
-        <v>1664</v>
       </c>
       <c r="C244" s="2">
         <v>0.15723119999999999</v>
@@ -17094,10 +17094,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B245" t="s">
         <v>1606</v>
-      </c>
-      <c r="B245" t="s">
-        <v>1607</v>
       </c>
       <c r="C245" s="2">
         <v>-0.34084449999999999</v>
@@ -17105,10 +17105,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B246" t="s">
         <v>1570</v>
-      </c>
-      <c r="B246" t="s">
-        <v>1571</v>
       </c>
       <c r="C246" s="2">
         <v>0.57893499999999998</v>
@@ -17116,10 +17116,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B247" t="s">
         <v>1632</v>
-      </c>
-      <c r="B247" t="s">
-        <v>1633</v>
       </c>
       <c r="C247" s="2">
         <v>-2.58865E-2</v>
@@ -17127,10 +17127,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B248" t="s">
         <v>1670</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1671</v>
       </c>
       <c r="C248" s="2">
         <v>-1.1596379999999999</v>
@@ -17138,10 +17138,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B249" t="s">
         <v>1704</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1705</v>
       </c>
       <c r="C249" s="2">
         <v>-0.80857959999999995</v>
@@ -17149,10 +17149,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B250" t="s">
         <v>1683</v>
-      </c>
-      <c r="B250" t="s">
-        <v>1684</v>
       </c>
       <c r="C250" s="2">
         <v>1.3435220000000001</v>
@@ -17160,10 +17160,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B251" t="s">
         <v>1679</v>
-      </c>
-      <c r="B251" t="s">
-        <v>1680</v>
       </c>
       <c r="C251" s="2">
         <v>-0.281806</v>
